--- a/biology/Zoologie/Exechiini/Exechiini.xlsx
+++ b/biology/Zoologie/Exechiini/Exechiini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Exechiini sont une tribu d'insectes diptères de la famille des Mycetophilidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tribu des Exechiini est décrite par Frederick Wallace Edwards en 1925 selon BioLib[1]. Paleobiology Database en 2023 attribue cette tribu à Enderlein 1936 mais sans publication originale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tribu des Exechiini est décrite par Frederick Wallace Edwards en 1925 selon BioLib. Paleobiology Database en 2023 attribue cette tribu à Enderlein 1936 mais sans publication originale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib en 2023, le nombre de genres dans cette tribu est de vingt plus un genre fossile[1] pour plus de 130 espèces :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib en 2023, le nombre de genres dans cette tribu est de vingt plus un genre fossile pour plus de 130 espèces :
 Allodia Winnertz, 1863 i c g b
 Allodiopsis Tuomikoski, 1966 i c g
 Anatella Winnertz, 1863 i c g
@@ -564,10 +580,45 @@
 Rymosia Winnertz, 1863 i c g b
 Stigmatomeria Tuomikoski, 1966 i c g
 Synplasta Skuse, 1890
-Tarnania Tuomikoski, 1966[1] i c g
-Data sources: i = ITIS[2], c = Catalogue of Life[3], g = GBIF[4], b = Bugguide.net[5],[2],[3],[4],[5]
-Genres fossiles
-†Eoexechia Camier &amp; Nel, 2020[1]</t>
+Tarnania Tuomikoski, 1966 i c g
+Data sources: i = ITIS, c = Catalogue of Life, g = GBIF, b = Bugguide.net
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Exechiini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exechiini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genres fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>†Eoexechia Camier &amp; Nel, 2020</t>
         </is>
       </c>
     </row>
